--- a/Darkwave/Dark Wave Design Plan.xlsx
+++ b/Darkwave/Dark Wave Design Plan.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicoli\Documents\GitHub\SIGGRAPH-Kraken\Darkwave\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="5160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Delegation</t>
   </si>
@@ -133,12 +139,6 @@
     <t>Player Classes</t>
   </si>
   <si>
-    <t>∙Wall
-∙Turret
-∙Each fill 1x1 square
-∙Implement connecting structures to share HP</t>
-  </si>
-  <si>
     <t>∙Damage Algorithm
 ∙Destroy on Collision
 ∙Some implementation of destroy on distance (bullet drop or timeout)</t>
@@ -153,12 +153,6 @@
     <t>∙Appears when placing structures
 ∙Always appears on map
 ∙Calculate based on row/column values appropriate for environment floor size</t>
-  </si>
-  <si>
-    <t>∙Time limit for win
-∙Keep track of enemies until level won (only spawn up to this amount)
-∙Player death/Game Over management
-∙Crystal Destroyed management</t>
   </si>
   <si>
     <t>Shard Class</t>
@@ -188,6 +182,31 @@
   </si>
   <si>
     <t>????</t>
+  </si>
+  <si>
+    <t>∙Time limit for win
+∙Keep track of enemies until level won (only spawn up to this amount)
+∙Player death penalties
+∙Crystal Destroyed management/Game Over</t>
+  </si>
+  <si>
+    <t>∙Wall
+∙Turret
+∙Each fill 1x1 square
+∙Implement connecting structures to share HP
+∙Stats based on player who created it</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Kayden</t>
+  </si>
+  <si>
+    <t>Clive</t>
+  </si>
+  <si>
+    <t>Paul</t>
   </si>
 </sst>
 </file>
@@ -403,6 +422,1441 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Updated
+10/25/2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sound</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$1:$E$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Health Display of Enemies</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Laser Sign aligned with crosshair
+∙Used to select which enemy's stats appear
+∙Name and health at minimum
+∙Ideally, floating over enemy proximally</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crosshair</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Map</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Map cam
+∙Display enemy and player</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Structure Placement View</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pause Feature/Menu</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Hud Design</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Main menu</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Spawner Classes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙General Spawner Class
+∙Shard Spawner Class
+∙Enemy Spawner Class
+∙For Shards, more spawn further from crysta
+∙Time interval for spawning</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Win-Lose Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Time limit for win
+∙Keep track of enemies until level won (only spawn up to this amount)
+∙Player death penalties
+∙Crystal Destroyed management/Game Over</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>World Grid</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Appears when placing structures
+∙Always appears on map
+∙Calculate based on row/column values appropriate for environment floor size</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Level Assets</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Permanent structures/models
+∙Textures
+∙Sounds
+∙Music</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Level Design</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Shot Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Damage Algorithm
+∙Destroy on Collision
+∙Some implementation of destroy on distance (bullet drop or timeout)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Shard Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Structure Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Wall
+∙Turret
+∙Each fill 1x1 square
+∙Implement connecting structures to share HP
+∙Stats based on player who created it</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Paul</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Enemy Classes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙General Class
+∙Revenant Class
+∙Rangefinder (for Structures)
+∙Radar (for Players)
+∙Adjacency Sensor (for Enemies)
+∙Pathfinding with Nav Mesh
+∙Pursuit Behavior
+∙Regular attack
+∙Strong/Grapple attack (stuns for now)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Andrew</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Player Classes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙General Class
+∙Architect Class
+∙Player Control
+∙Weapon (just Assault Rifle)
+∙Stun State</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Clive</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Possible Sentient Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Inherit from Entity
+∙Shared aspects of Enemies, Players etc.
+∙Attack, Defense, Accuracy etc.
+∙Skills</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Entity Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Health
+∙Damage System
+∙Aggro Level System</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Kayden</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Module</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Subtasks</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Delegation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Updated
+10/25/2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Documentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$1:$E$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Health Display of Enemies</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Laser Sign aligned with crosshair
+∙Used to select which enemy's stats appear
+∙Name and health at minimum
+∙Ideally, floating over enemy proximally</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Crosshair</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Map</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Map cam
+∙Display enemy and player</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Structure Placement View</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pause Feature/Menu</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Hud Design</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Main menu</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Spawner Classes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙General Spawner Class
+∙Shard Spawner Class
+∙Enemy Spawner Class
+∙For Shards, more spawn further from crysta
+∙Time interval for spawning</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Win-Lose Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Time limit for win
+∙Keep track of enemies until level won (only spawn up to this amount)
+∙Player death penalties
+∙Crystal Destroyed management/Game Over</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>World Grid</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Appears when placing structures
+∙Always appears on map
+∙Calculate based on row/column values appropriate for environment floor size</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Level Assets</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Permanent structures/models
+∙Textures
+∙Sounds
+∙Music</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Level Design</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Shot Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Damage Algorithm
+∙Destroy on Collision
+∙Some implementation of destroy on distance (bullet drop or timeout)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Shard Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙∙∙∙∙∙∙∙∙∙∙∙∙</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Structure Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Wall
+∙Turret
+∙Each fill 1x1 square
+∙Implement connecting structures to share HP
+∙Stats based on player who created it</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Paul</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Enemy Classes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙General Class
+∙Revenant Class
+∙Rangefinder (for Structures)
+∙Radar (for Players)
+∙Adjacency Sensor (for Enemies)
+∙Pathfinding with Nav Mesh
+∙Pursuit Behavior
+∙Regular attack
+∙Strong/Grapple attack (stuns for now)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Andrew</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Player Classes</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙General Class
+∙Architect Class
+∙Player Control
+∙Weapon (just Assault Rifle)
+∙Stun State</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Clive</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Possible Sentient Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Inherit from Entity
+∙Shared aspects of Enemies, Players etc.
+∙Attack, Defense, Accuracy etc.
+∙Skills</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>????</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Entity Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>∙Health
+∙Damage System
+∙Aggro Level System</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Kayden</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Module</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Subtasks</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Delegation</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="196199512"/>
+        <c:axId val="405895008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="196199512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405895008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="405895008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196199512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8661105" cy="6313081"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -446,7 +1900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,7 +1935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,37 +2146,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
@@ -747,7 +2201,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
@@ -756,7 +2210,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="21" t="s">
@@ -766,7 +2220,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -777,7 +2231,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17"/>
       <c r="C5" s="21" t="s">
@@ -787,7 +2241,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -798,7 +2252,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="17"/>
       <c r="C6" s="21" t="s">
@@ -808,7 +2262,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -819,7 +2273,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="129.6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="22" t="s">
         <v>30</v>
@@ -828,7 +2282,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -839,16 +2293,16 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -859,16 +2313,16 @@
       <c r="L8" s="2"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -879,16 +2333,16 @@
       <c r="L9" s="2"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -899,7 +2353,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
@@ -907,7 +2361,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="22" t="s">
         <v>14</v>
@@ -916,7 +2370,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -927,16 +2381,16 @@
       <c r="L12" s="14"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -947,16 +2401,16 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -967,16 +2421,16 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -987,16 +2441,16 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1007,7 +2461,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +2469,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="21" t="s">
         <v>18</v>
@@ -1024,7 +2478,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1035,7 +2489,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="21" t="s">
         <v>19</v>
@@ -1044,7 +2498,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1055,7 +2509,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="21" t="s">
         <v>20</v>
@@ -1064,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1075,7 +2529,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="21" t="s">
         <v>21</v>
@@ -1084,7 +2538,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1095,16 +2549,16 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1115,7 +2569,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="21" t="s">
         <v>22</v>
@@ -1124,7 +2578,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1135,16 +2589,16 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1155,18 +2609,18 @@
       <c r="L24" s="14"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
     </row>
   </sheetData>
@@ -1181,7 +2635,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1193,7 +2647,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
